--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/C3-C3ar1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/C3-C3ar1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>34.739995</v>
+        <v>0.09665433333333333</v>
       </c>
       <c r="H2">
-        <v>104.219985</v>
+        <v>0.289963</v>
       </c>
       <c r="I2">
-        <v>0.1827267341390227</v>
+        <v>0.0006230336790718351</v>
       </c>
       <c r="J2">
-        <v>0.1827267341390227</v>
+        <v>0.0006230336790718351</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>11.838451</v>
+        <v>0.1007803333333333</v>
       </c>
       <c r="N2">
-        <v>35.515353</v>
+        <v>0.302341</v>
       </c>
       <c r="O2">
-        <v>0.9341683151774448</v>
+        <v>0.1035761647483865</v>
       </c>
       <c r="P2">
-        <v>0.9341683151774446</v>
+        <v>0.1035761647483865</v>
       </c>
       <c r="Q2">
-        <v>411.267728547745</v>
+        <v>0.009740855931444446</v>
       </c>
       <c r="R2">
-        <v>3701.409556929705</v>
+        <v>0.08766770338299999</v>
       </c>
       <c r="S2">
-        <v>0.1706975253685277</v>
+        <v>6.453143898733777E-05</v>
       </c>
       <c r="T2">
-        <v>0.1706975253685276</v>
+        <v>6.453143898733778E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>34.739995</v>
+        <v>0.09665433333333333</v>
       </c>
       <c r="H3">
-        <v>104.219985</v>
+        <v>0.289963</v>
       </c>
       <c r="I3">
-        <v>0.1827267341390227</v>
+        <v>0.0006230336790718351</v>
       </c>
       <c r="J3">
-        <v>0.1827267341390227</v>
+        <v>0.0006230336790718351</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>1.869036</v>
       </c>
       <c r="O3">
-        <v>0.0491616741392375</v>
+        <v>0.6402954963325033</v>
       </c>
       <c r="P3">
-        <v>0.04916167413923749</v>
+        <v>0.6402954963325033</v>
       </c>
       <c r="Q3">
-        <v>21.64343376494</v>
+        <v>0.06021680951866666</v>
       </c>
       <c r="R3">
-        <v>194.79090388446</v>
+        <v>0.5419512856679999</v>
       </c>
       <c r="S3">
-        <v>0.008983152160269715</v>
+        <v>0.0003989256587731662</v>
       </c>
       <c r="T3">
-        <v>0.008983152160269714</v>
+        <v>0.0003989256587731662</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>34.739995</v>
+        <v>0.09665433333333333</v>
       </c>
       <c r="H4">
-        <v>104.219985</v>
+        <v>0.289963</v>
       </c>
       <c r="I4">
-        <v>0.1827267341390227</v>
+        <v>0.0006230336790718351</v>
       </c>
       <c r="J4">
-        <v>0.1827267341390227</v>
+        <v>0.0006230336790718351</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,28 +676,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.2112543333333333</v>
+        <v>0.2492146666666667</v>
       </c>
       <c r="N4">
-        <v>0.6337630000000001</v>
+        <v>0.747644</v>
       </c>
       <c r="O4">
-        <v>0.0166700106833178</v>
+        <v>0.2561283389191102</v>
       </c>
       <c r="P4">
-        <v>0.0166700106833178</v>
+        <v>0.2561283389191102</v>
       </c>
       <c r="Q4">
-        <v>7.338974483728334</v>
+        <v>0.02408767746355555</v>
       </c>
       <c r="R4">
-        <v>66.05077035355501</v>
+        <v>0.216789097172</v>
       </c>
       <c r="S4">
-        <v>0.00304605661022528</v>
+        <v>0.0001595765813113311</v>
       </c>
       <c r="T4">
-        <v>0.003046056610225279</v>
+        <v>0.0001595765813113311</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>154.8642143333333</v>
+        <v>154.8642143333334</v>
       </c>
       <c r="H5">
-        <v>464.592643</v>
+        <v>464.5926430000001</v>
       </c>
       <c r="I5">
-        <v>0.8145606273154508</v>
+        <v>0.9982544794956518</v>
       </c>
       <c r="J5">
-        <v>0.8145606273154506</v>
+        <v>0.9982544794956519</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>11.838451</v>
+        <v>0.1007803333333333</v>
       </c>
       <c r="N5">
-        <v>35.515353</v>
+        <v>0.302341</v>
       </c>
       <c r="O5">
-        <v>0.9341683151774448</v>
+        <v>0.1035761647483865</v>
       </c>
       <c r="P5">
-        <v>0.9341683151774446</v>
+        <v>0.1035761647483865</v>
       </c>
       <c r="Q5">
-        <v>1833.352413038664</v>
+        <v>15.60726714191812</v>
       </c>
       <c r="R5">
-        <v>16500.17171734798</v>
+        <v>140.465404277263</v>
       </c>
       <c r="S5">
-        <v>0.7609367288291572</v>
+        <v>0.1033953704290565</v>
       </c>
       <c r="T5">
-        <v>0.7609367288291569</v>
+        <v>0.1033953704290565</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>154.8642143333333</v>
+        <v>154.8642143333334</v>
       </c>
       <c r="H6">
-        <v>464.592643</v>
+        <v>464.5926430000001</v>
       </c>
       <c r="I6">
-        <v>0.8145606273154508</v>
+        <v>0.9982544794956518</v>
       </c>
       <c r="J6">
-        <v>0.8145606273154506</v>
+        <v>0.9982544794956519</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>1.869036</v>
       </c>
       <c r="O6">
-        <v>0.0491616741392375</v>
+        <v>0.6402954963325033</v>
       </c>
       <c r="P6">
-        <v>0.04916167413923749</v>
+        <v>0.6402954963325033</v>
       </c>
       <c r="Q6">
-        <v>96.48226390023866</v>
+        <v>96.48226390023869</v>
       </c>
       <c r="R6">
-        <v>868.340375102148</v>
+        <v>868.3403751021481</v>
       </c>
       <c r="S6">
-        <v>0.04004516412673507</v>
+        <v>0.6391778474148131</v>
       </c>
       <c r="T6">
-        <v>0.04004516412673505</v>
+        <v>0.6391778474148132</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>154.8642143333333</v>
+        <v>154.8642143333334</v>
       </c>
       <c r="H7">
-        <v>464.592643</v>
+        <v>464.5926430000001</v>
       </c>
       <c r="I7">
-        <v>0.8145606273154508</v>
+        <v>0.9982544794956518</v>
       </c>
       <c r="J7">
-        <v>0.8145606273154506</v>
+        <v>0.9982544794956519</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -862,28 +862,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.2112543333333333</v>
+        <v>0.2492146666666667</v>
       </c>
       <c r="N7">
-        <v>0.6337630000000001</v>
+        <v>0.747644</v>
       </c>
       <c r="O7">
-        <v>0.0166700106833178</v>
+        <v>0.2561283389191102</v>
       </c>
       <c r="P7">
-        <v>0.0166700106833178</v>
+        <v>0.2561283389191102</v>
       </c>
       <c r="Q7">
-        <v>32.71573635617878</v>
+        <v>38.5944335536769</v>
       </c>
       <c r="R7">
-        <v>294.4416272056091</v>
+        <v>347.349901983092</v>
       </c>
       <c r="S7">
-        <v>0.01357873435955862</v>
+        <v>0.2556812616517822</v>
       </c>
       <c r="T7">
-        <v>0.01357873435955861</v>
+        <v>0.2556812616517823</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5157266666666667</v>
+        <v>0.174137</v>
       </c>
       <c r="H8">
-        <v>1.54718</v>
+        <v>0.522411</v>
       </c>
       <c r="I8">
-        <v>0.002712638545526686</v>
+        <v>0.001122486825276316</v>
       </c>
       <c r="J8">
-        <v>0.002712638545526686</v>
+        <v>0.001122486825276316</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>11.838451</v>
+        <v>0.1007803333333333</v>
       </c>
       <c r="N8">
-        <v>35.515353</v>
+        <v>0.302341</v>
       </c>
       <c r="O8">
-        <v>0.9341683151774448</v>
+        <v>0.1035761647483865</v>
       </c>
       <c r="P8">
-        <v>0.9341683151774446</v>
+        <v>0.1035761647483865</v>
       </c>
       <c r="Q8">
-        <v>6.105404872726666</v>
+        <v>0.01754958490566667</v>
       </c>
       <c r="R8">
-        <v>54.94864385453999</v>
+        <v>0.157946264151</v>
       </c>
       <c r="S8">
-        <v>0.002534060979760059</v>
+        <v>0.0001162628803427131</v>
       </c>
       <c r="T8">
-        <v>0.002534060979760058</v>
+        <v>0.0001162628803427131</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5157266666666667</v>
+        <v>0.174137</v>
       </c>
       <c r="H9">
-        <v>1.54718</v>
+        <v>0.522411</v>
       </c>
       <c r="I9">
-        <v>0.002712638545526686</v>
+        <v>0.001122486825276316</v>
       </c>
       <c r="J9">
-        <v>0.002712638545526686</v>
+        <v>0.001122486825276316</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>1.869036</v>
       </c>
       <c r="O9">
-        <v>0.0491616741392375</v>
+        <v>0.6402954963325033</v>
       </c>
       <c r="P9">
-        <v>0.04916167413923749</v>
+        <v>0.6402954963325033</v>
       </c>
       <c r="Q9">
-        <v>0.3213039020533333</v>
+        <v>0.108489440644</v>
       </c>
       <c r="R9">
-        <v>2.89173511848</v>
+        <v>0.9764049657959999</v>
       </c>
       <c r="S9">
-        <v>0.0001333578522327181</v>
+        <v>0.0007187232589169945</v>
       </c>
       <c r="T9">
-        <v>0.0001333578522327181</v>
+        <v>0.0007187232589169946</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5157266666666667</v>
+        <v>0.174137</v>
       </c>
       <c r="H10">
-        <v>1.54718</v>
+        <v>0.522411</v>
       </c>
       <c r="I10">
-        <v>0.002712638545526686</v>
+        <v>0.001122486825276316</v>
       </c>
       <c r="J10">
-        <v>0.002712638545526686</v>
+        <v>0.001122486825276316</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1048,28 +1048,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.2112543333333333</v>
+        <v>0.2492146666666667</v>
       </c>
       <c r="N10">
-        <v>0.6337630000000001</v>
+        <v>0.747644</v>
       </c>
       <c r="O10">
-        <v>0.0166700106833178</v>
+        <v>0.2561283389191102</v>
       </c>
       <c r="P10">
-        <v>0.0166700106833178</v>
+        <v>0.2561283389191102</v>
       </c>
       <c r="Q10">
-        <v>0.1089494931488889</v>
+        <v>0.04339749440933333</v>
       </c>
       <c r="R10">
-        <v>0.9805454383400001</v>
+        <v>0.3905774496839999</v>
       </c>
       <c r="S10">
-        <v>4.521971353390953E-05</v>
+        <v>0.0002875006860166083</v>
       </c>
       <c r="T10">
-        <v>4.521971353390952E-05</v>
+        <v>0.0002875006860166083</v>
       </c>
     </row>
   </sheetData>
